--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,81 +19,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloom Filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in/pre/post order traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrays</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloom Filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in/pre/post order traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graph</t>
+    <t>平衡二叉树：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,19 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>7</v>
       </c>
@@ -439,93 +443,98 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
